--- a/xlsx/南极洲_intext.xlsx
+++ b/xlsx/南极洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>南極</t>
   </si>
   <si>
-    <t>政策_政策_美國_南极洲</t>
+    <t>体育运动_体育运动_伊朗_南极洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
